--- a/재고관리.xlsx
+++ b/재고관리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\바탕 화면\응소실\2024KWUASP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\바탕 화면\응소실팀플\2024KWUASP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E55340-7A1E-4AB5-AA78-EAD825CBDC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7402646A-E506-49DE-B4AA-E1986C395857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5490" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{B46B7F93-C479-45C1-8ADD-976FB062A30E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>재고 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">매월 둘째주 월요일에 5개 발주 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제육</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,10 +187,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>6/18 5:00 추가 5통 도착 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>김치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -590,7 +588,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -620,70 +618,70 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>512</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>152</v>
@@ -694,7 +692,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>55</v>
@@ -705,112 +703,112 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/재고관리.xlsx
+++ b/재고관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\바탕 화면\응소실팀플\2024KWUASP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7402646A-E506-49DE-B4AA-E1986C395857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF28F750-4379-4208-B731-DE1F2AA7A3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5490" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{B46B7F93-C479-45C1-8ADD-976FB062A30E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>재고 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>59인분 이하 시 발주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낙지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +188,22 @@
   </si>
   <si>
     <t>김치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50인분 이하 시 발주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로 콜라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펩시 제로 +250 발주 신청 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸치(육수용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADE7AD3-BE3B-432D-A400-9547EFE07D6A}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -585,10 +597,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -596,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -621,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -640,48 +652,48 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>210</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9">
-        <v>512</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>152</v>
@@ -692,10 +704,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -703,112 +715,134 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/재고관리.xlsx
+++ b/재고관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\바탕 화면\응소실팀플\2024KWUASP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF28F750-4379-4208-B731-DE1F2AA7A3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8245268B-DBE5-4FFA-9B33-7E76902F914A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5490" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{B46B7F93-C479-45C1-8ADD-976FB062A30E}"/>
   </bookViews>
